--- a/biology/Zoologie/Galba_(mollusque)/Galba_(mollusque).xlsx
+++ b/biology/Zoologie/Galba_(mollusque)/Galba_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galba est un genre de mollusques gastéropodes de la famille des Lymnaeidae. En Europe, ce genre ne contient qu'une espèce, Galba truncatula (O.F. Muller, 1774), la Limnée tronquée qui vit en eau douce.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon NCBI  (24 févr. 2015)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (24 févr. 2015) :
 Galba cousini
 Galba cubensis
 Galba neotropica
